--- a/mybook.xlsx
+++ b/mybook.xlsx
@@ -11,8 +11,17 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>sdfsdfsdfsdfwwww</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,12 +363,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="13" spans="5:5">
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/mybook.xlsx
+++ b/mybook.xlsx
@@ -16,9 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>sdfsdfsdfsdfwwww</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wwwwx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,15 +367,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E13"/>
+  <dimension ref="E5:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="13" spans="5:5">
+    <row r="5" spans="5:8">
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8">
       <c r="E13" t="s">
         <v>0</v>
       </c>
